--- a/Applicent Status Report.xlsx
+++ b/Applicent Status Report.xlsx
@@ -746,13 +746,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -912,6 +912,11 @@
       </c>
       <c r="J9" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Applicent Status Report.xlsx
+++ b/Applicent Status Report.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Hiring Manager</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
   </si>
 </sst>
 </file>
@@ -746,13 +749,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -912,6 +915,14 @@
       </c>
       <c r="J9" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3">
+        <v>2323222</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Applicent Status Report.xlsx
+++ b/Applicent Status Report.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Hiring Manager</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
   </si>
 </sst>
 </file>
@@ -746,13 +749,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -917,6 +920,14 @@
     <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3">
+        <v>2323222</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
